--- a/Incentive_COM/result/Lê Chiến Thắng.xlsx
+++ b/Incentive_COM/result/Lê Chiến Thắng.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="107">
   <si>
     <t>KAM/KAE (Full name)</t>
   </si>
@@ -89,7 +89,7 @@
     <t>PPD</t>
   </si>
   <si>
-    <t>COWAY</t>
+    <t>P&amp;G</t>
   </si>
   <si>
     <t>SAGEN GROUPE</t>
@@ -98,6 +98,9 @@
     <t>BLACKMORES</t>
   </si>
   <si>
+    <t>MOLFIX</t>
+  </si>
+  <si>
     <t>MOI</t>
   </si>
   <si>
@@ -116,18 +119,27 @@
     <t>LOREAL PROFESSIONEL - SHOPEE</t>
   </si>
   <si>
+    <t>P&amp;G PERSONALCARE - TIKI</t>
+  </si>
+  <si>
+    <t>P&amp;G OLAY - TIKI</t>
+  </si>
+  <si>
+    <t>P&amp;G FABRIC - TIKI</t>
+  </si>
+  <si>
     <t>LDP-HANNAHKER</t>
   </si>
   <si>
     <t>LOREALPRO VS HANNAHOLALA</t>
   </si>
   <si>
-    <t>COWAY - LAZADA</t>
-  </si>
-  <si>
     <t>HANNAH X PPD - LANDING</t>
   </si>
   <si>
+    <t>P&amp;G HC - TIKI</t>
+  </si>
+  <si>
     <t>ETIAXIL - SHOPEE</t>
   </si>
   <si>
@@ -143,6 +155,9 @@
     <t>BLACKMORES - TIKI</t>
   </si>
   <si>
+    <t>MOLFIX - TIKTOK</t>
+  </si>
+  <si>
     <t>M.O.I - TIKTOK</t>
   </si>
   <si>
@@ -176,115 +191,127 @@
     <t>Lê Chiến Thắng</t>
   </si>
   <si>
+    <t>Vũ Thị Phương Thảo</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Lãm</t>
+  </si>
+  <si>
     <t>Nguyễn Châu Hoàng Yến</t>
   </si>
   <si>
     <t xml:space="preserve">Trần Thị Tường Vân </t>
   </si>
   <si>
+    <t>Trần Minh Duy</t>
+  </si>
+  <si>
     <t>Đoàn Nguyễn Dạ Dương</t>
   </si>
   <si>
     <t>0.00%</t>
   </si>
   <si>
-    <t>81.55%</t>
-  </si>
-  <si>
-    <t>128.52%</t>
-  </si>
-  <si>
-    <t>94.27%</t>
-  </si>
-  <si>
-    <t>94.05%</t>
-  </si>
-  <si>
-    <t>72.91%</t>
-  </si>
-  <si>
-    <t>118.04%</t>
-  </si>
-  <si>
-    <t>11.47%</t>
+    <t>154.41%</t>
+  </si>
+  <si>
+    <t>151.59%</t>
+  </si>
+  <si>
+    <t>114.88%</t>
+  </si>
+  <si>
+    <t>146.24%</t>
+  </si>
+  <si>
+    <t>24.83%</t>
+  </si>
+  <si>
+    <t>19.12%</t>
   </si>
   <si>
     <t>100.00%</t>
   </si>
   <si>
-    <t>77.95%</t>
-  </si>
-  <si>
-    <t>51.25%</t>
-  </si>
-  <si>
-    <t>215.41%</t>
-  </si>
-  <si>
-    <t>74.52%</t>
-  </si>
-  <si>
-    <t>23.77%</t>
-  </si>
-  <si>
-    <t>68.93%</t>
-  </si>
-  <si>
-    <t>66.55%</t>
-  </si>
-  <si>
-    <t>37.13%</t>
-  </si>
-  <si>
-    <t>246.71%</t>
-  </si>
-  <si>
-    <t>39.27%</t>
-  </si>
-  <si>
-    <t>34.79%</t>
-  </si>
-  <si>
-    <t>29.43%</t>
-  </si>
-  <si>
-    <t>50.85%</t>
-  </si>
-  <si>
-    <t>152.92%</t>
-  </si>
-  <si>
-    <t>54.97%</t>
-  </si>
-  <si>
-    <t>57.34%</t>
-  </si>
-  <si>
-    <t>77.26%</t>
-  </si>
-  <si>
-    <t>65.43%</t>
-  </si>
-  <si>
-    <t>54.38%</t>
-  </si>
-  <si>
-    <t>118.02%</t>
-  </si>
-  <si>
-    <t>4.68%</t>
-  </si>
-  <si>
-    <t>66.90%</t>
-  </si>
-  <si>
-    <t>375.52%</t>
-  </si>
-  <si>
-    <t>-57.03%</t>
-  </si>
-  <si>
-    <t>185.38%</t>
+    <t>15.48%</t>
+  </si>
+  <si>
+    <t>44.73%</t>
+  </si>
+  <si>
+    <t>79.28%</t>
+  </si>
+  <si>
+    <t>141.82%</t>
+  </si>
+  <si>
+    <t>178.40%</t>
+  </si>
+  <si>
+    <t>257.80%</t>
+  </si>
+  <si>
+    <t>69.55%</t>
+  </si>
+  <si>
+    <t>197.50%</t>
+  </si>
+  <si>
+    <t>72.15%</t>
+  </si>
+  <si>
+    <t>57.73%</t>
+  </si>
+  <si>
+    <t>34.43%</t>
+  </si>
+  <si>
+    <t>89.60%</t>
+  </si>
+  <si>
+    <t>25.38%</t>
+  </si>
+  <si>
+    <t>1.00%</t>
+  </si>
+  <si>
+    <t>15.41%</t>
+  </si>
+  <si>
+    <t>48.48%</t>
+  </si>
+  <si>
+    <t>15.60%</t>
+  </si>
+  <si>
+    <t>71.96%</t>
+  </si>
+  <si>
+    <t>43.89%</t>
+  </si>
+  <si>
+    <t>657.55%</t>
+  </si>
+  <si>
+    <t>3.93%</t>
+  </si>
+  <si>
+    <t>20.54%</t>
+  </si>
+  <si>
+    <t>-34.81%</t>
+  </si>
+  <si>
+    <t>1549.99%</t>
+  </si>
+  <si>
+    <t>143.01%</t>
+  </si>
+  <si>
+    <t>8980.78%</t>
+  </si>
+  <si>
+    <t>1097.38%</t>
   </si>
   <si>
     <t>Name</t>
@@ -293,16 +320,22 @@
     <t>Incentive</t>
   </si>
   <si>
-    <t>79.36%</t>
-  </si>
-  <si>
-    <t>79.11%</t>
-  </si>
-  <si>
-    <t>73.37%</t>
+    <t>106.63%</t>
+  </si>
+  <si>
+    <t>101.48%</t>
+  </si>
+  <si>
+    <t>666.95%</t>
+  </si>
+  <si>
+    <t>30.00%</t>
   </si>
   <si>
     <t>5.00%</t>
+  </si>
+  <si>
+    <t>20.00%</t>
   </si>
 </sst>
 </file>
@@ -681,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -754,16 +787,16 @@
         <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G2" s="2">
         <v>0</v>
@@ -772,16 +805,16 @@
         <v>0</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J2" s="2">
-        <v>54630</v>
+        <v>54236</v>
       </c>
       <c r="K2" s="2">
-        <v>66991</v>
+        <v>35124</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="M2" s="2">
         <v>0</v>
@@ -790,19 +823,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P2" s="2">
-        <v>3387.06</v>
+        <v>3850.756</v>
       </c>
       <c r="Q2" s="2">
-        <v>4153.442</v>
+        <v>2493.804</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -813,16 +846,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G3" s="2">
         <v>0</v>
@@ -831,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J3" s="2">
-        <v>31065</v>
+        <v>30631</v>
       </c>
       <c r="K3" s="2">
-        <v>24172</v>
+        <v>20206</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="M3" s="2">
         <v>0</v>
@@ -849,19 +882,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P3" s="2">
-        <v>1926.03</v>
+        <v>2174.801</v>
       </c>
       <c r="Q3" s="2">
-        <v>1498.664</v>
+        <v>1434.626</v>
       </c>
       <c r="R3" s="2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="S3" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -872,16 +905,16 @@
         <v>23</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G4" s="2">
         <v>0</v>
@@ -890,16 +923,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J4" s="2">
-        <v>16378</v>
+        <v>14481</v>
       </c>
       <c r="K4" s="2">
-        <v>17373</v>
+        <v>12605</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="M4" s="2">
         <v>0</v>
@@ -908,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P4" s="2">
-        <v>1015.436</v>
+        <v>1028.151</v>
       </c>
       <c r="Q4" s="2">
-        <v>1077.126</v>
+        <v>894.9549999999999</v>
       </c>
       <c r="R4" s="2" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="S4" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -934,7 +967,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -949,16 +982,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J5" s="3">
-        <v>102073</v>
+        <v>99348</v>
       </c>
       <c r="K5" s="3">
-        <v>108536</v>
+        <v>67935</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="M5" s="3">
         <v>0</v>
@@ -967,19 +1000,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P5" s="3">
-        <v>6328.526</v>
+        <v>7053.708</v>
       </c>
       <c r="Q5" s="3">
-        <v>6729.232</v>
+        <v>4823.384999999999</v>
       </c>
       <c r="R5" s="3" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="S5" s="3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -987,19 +1020,19 @@
         <v>20</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G6" s="2">
         <v>0</v>
@@ -1008,16 +1041,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J6" s="2">
-        <v>61961</v>
+        <v>5090</v>
       </c>
       <c r="K6" s="2">
-        <v>84978.60000000001</v>
+        <v>20500</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="M6" s="2">
         <v>0</v>
@@ -1026,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P6" s="2">
-        <v>3841.582</v>
+        <v>473.3700000000001</v>
       </c>
       <c r="Q6" s="2">
-        <v>5268.6732</v>
+        <v>1906.5</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="S6" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -1046,19 +1079,19 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G7" s="2">
         <v>0</v>
@@ -1067,16 +1100,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J7" s="2">
-        <v>16718</v>
+        <v>2964</v>
       </c>
       <c r="K7" s="2">
-        <v>14162.6</v>
+        <v>15500</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="M7" s="2">
         <v>0</v>
@@ -1085,19 +1118,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P7" s="2">
-        <v>1036.516</v>
+        <v>275.652</v>
       </c>
       <c r="Q7" s="2">
-        <v>878.0812</v>
+        <v>1441.5</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -1108,16 +1141,16 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1126,16 +1159,16 @@
         <v>0</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J8" s="2">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="K8" s="2">
-        <v>4500</v>
+        <v>29000</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M8" s="2">
         <v>0</v>
@@ -1144,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P8" s="2">
-        <v>39.732</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2">
-        <v>346.5</v>
+        <v>2697</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="S8" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -1167,16 +1200,16 @@
         <v>23</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G9" s="2">
         <v>0</v>
@@ -1185,16 +1218,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J9" s="2">
-        <v>1596</v>
+        <v>1215</v>
       </c>
       <c r="K9" s="2">
         <v>0</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="M9" s="2">
         <v>0</v>
@@ -1203,98 +1236,98 @@
         <v>0</v>
       </c>
       <c r="O9" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P9" s="2">
-        <v>98.952</v>
+        <v>117.855</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
       </c>
       <c r="R9" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3">
-        <v>2</v>
-      </c>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="3">
-        <v>80791</v>
-      </c>
-      <c r="K10" s="3">
-        <v>103641.2</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="M10" s="3">
-        <v>0</v>
-      </c>
-      <c r="N10" s="3">
-        <v>0</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P10" s="3">
-        <v>5016.782</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>6493.2544</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>86</v>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J10" s="2">
+        <v>324</v>
+      </c>
+      <c r="K10" s="2">
+        <v>0</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="2">
+        <v>31.428</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:19">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G11" s="2">
         <v>0</v>
@@ -1303,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J11" s="2">
-        <v>33255</v>
+        <v>326</v>
       </c>
       <c r="K11" s="2">
-        <v>64893</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="M11" s="2">
         <v>0</v>
@@ -1321,39 +1354,39 @@
         <v>0</v>
       </c>
       <c r="O11" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P11" s="2">
-        <v>1762.515</v>
+        <v>31.622</v>
       </c>
       <c r="Q11" s="2">
-        <v>3439.329</v>
+        <v>0</v>
       </c>
       <c r="R11" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:19">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="G12" s="2">
         <v>0</v>
@@ -1362,96 +1395,96 @@
         <v>0</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J12" s="2">
+        <v>143</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P12" s="2">
+        <v>13.299</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>7</v>
+      </c>
+      <c r="D13" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="2">
-        <v>21965</v>
-      </c>
-      <c r="K12" s="2">
-        <v>10197</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2">
-        <v>0</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P12" s="2">
-        <v>1164.145</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>540.441</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="S12" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
-      <c r="A13" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="2">
-        <v>0</v>
-      </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J13" s="2">
-        <v>15992</v>
-      </c>
-      <c r="K13" s="2">
-        <v>21459</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2">
-        <v>0</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1071.464</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1437.753</v>
-      </c>
-      <c r="R13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>56</v>
+      <c r="E13" s="3">
+        <v>2</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J13" s="3">
+        <v>10062</v>
+      </c>
+      <c r="K13" s="3">
+        <v>65000</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P13" s="3">
+        <v>943.2260000000001</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>6045.000000000001</v>
+      </c>
+      <c r="R13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S13" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1459,19 +1492,19 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G14" s="2">
         <v>0</v>
@@ -1480,16 +1513,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J14" s="2">
-        <v>3880</v>
+        <v>20089</v>
       </c>
       <c r="K14" s="2">
-        <v>16326</v>
+        <v>44912.99999999993</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="M14" s="2">
         <v>0</v>
@@ -1498,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P14" s="2">
-        <v>259.96</v>
+        <v>1948.633</v>
       </c>
       <c r="Q14" s="2">
-        <v>1093.842</v>
+        <v>4356.560999999993</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="S14" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:19">
@@ -1518,137 +1551,137 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="2">
+        <v>12444</v>
+      </c>
+      <c r="K15" s="2">
+        <v>15696.99999999998</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P15" s="2">
+        <v>1207.068</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1522.608999999998</v>
+      </c>
+      <c r="R15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="2">
-        <v>0</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J15" s="2">
-        <v>639</v>
-      </c>
-      <c r="K15" s="2">
-        <v>927.0386266094413</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2">
-        <v>0</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P15" s="2">
-        <v>42.813</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>62.11158798283257</v>
-      </c>
-      <c r="R15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="S15" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
-      <c r="A16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16" s="3">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
-        <v>5</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="3">
-        <v>0</v>
-      </c>
-      <c r="H16" s="3">
-        <v>0</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J16" s="3">
-        <v>75731</v>
-      </c>
-      <c r="K16" s="3">
-        <v>113802.0386266094</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="M16" s="3">
-        <v>0</v>
-      </c>
-      <c r="N16" s="3">
-        <v>0</v>
-      </c>
-      <c r="O16" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P16" s="3">
-        <v>4300.897</v>
-      </c>
-      <c r="Q16" s="3">
-        <v>6573.476587982832</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>64</v>
+      <c r="C16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J16" s="2">
+        <v>12764</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9000</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1467.86</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1035</v>
+      </c>
+      <c r="R16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G17" s="2">
         <v>0</v>
@@ -1657,16 +1690,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J17" s="2">
-        <v>3713</v>
+        <v>3568</v>
       </c>
       <c r="K17" s="2">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M17" s="2">
         <v>0</v>
@@ -1675,39 +1708,39 @@
         <v>0</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P17" s="2">
-        <v>360.161</v>
+        <v>410.32</v>
       </c>
       <c r="Q17" s="2">
-        <v>970</v>
+        <v>230</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="G18" s="2">
         <v>0</v>
@@ -1716,96 +1749,96 @@
         <v>0</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="2">
+        <v>1289</v>
+      </c>
+      <c r="K18" s="2">
+        <v>500</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P18" s="2">
+        <v>148.235</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>57.5</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3">
+        <v>5</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J18" s="2">
-        <v>6069</v>
-      </c>
-      <c r="K18" s="2">
-        <v>2460</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>0</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P18" s="2">
-        <v>182.07</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>73.8</v>
-      </c>
-      <c r="R18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S18" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G19" s="2">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
-        <v>0</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="2">
-        <v>966</v>
-      </c>
-      <c r="K19" s="2">
-        <v>2460</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2">
-        <v>0</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P19" s="2">
-        <v>28.98</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>73.8</v>
-      </c>
-      <c r="R19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>56</v>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
+        <v>0</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J19" s="3">
+        <v>50154</v>
+      </c>
+      <c r="K19" s="3">
+        <v>72109.99999999991</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="3">
+        <v>0</v>
+      </c>
+      <c r="N19" s="3">
+        <v>0</v>
+      </c>
+      <c r="O19" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P19" s="3">
+        <v>5182.115999999999</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>7201.669999999991</v>
+      </c>
+      <c r="R19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="S19" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:19">
@@ -1813,19 +1846,19 @@
         <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G20" s="2">
         <v>0</v>
@@ -1834,16 +1867,16 @@
         <v>0</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J20" s="2">
-        <v>958</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2">
-        <v>2754</v>
+        <v>4999.999999999994</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="M20" s="2">
         <v>0</v>
@@ -1852,19 +1885,19 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P20" s="2">
-        <v>28.74</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2">
-        <v>82.61999999999999</v>
+        <v>484.9999999999994</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="S20" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:19">
@@ -1875,16 +1908,16 @@
         <v>28</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G21" s="2">
         <v>0</v>
@@ -1893,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J21" s="2">
-        <v>1854</v>
+        <v>3950</v>
       </c>
       <c r="K21" s="2">
-        <v>6300</v>
+        <v>1999.999999999999</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="M21" s="2">
         <v>0</v>
@@ -1911,19 +1944,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P21" s="2">
-        <v>55.62</v>
+        <v>434.5</v>
       </c>
       <c r="Q21" s="2">
-        <v>189</v>
+        <v>219.9999999999999</v>
       </c>
       <c r="R21" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="S21" s="2" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:19">
@@ -1934,16 +1967,16 @@
         <v>29</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G22" s="2">
         <v>0</v>
@@ -1952,16 +1985,16 @@
         <v>0</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J22" s="2">
-        <v>7627</v>
+        <v>3607</v>
       </c>
       <c r="K22" s="2">
-        <v>15000</v>
+        <v>4999.612903225804</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M22" s="2">
         <v>0</v>
@@ -1970,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P22" s="2">
-        <v>988.4591999999999</v>
+        <v>108.21</v>
       </c>
       <c r="Q22" s="2">
-        <v>1944</v>
+        <v>149.9883870967741</v>
       </c>
       <c r="R22" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="S22" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:19">
@@ -1993,16 +2026,16 @@
         <v>29</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2">
         <v>0</v>
@@ -2011,16 +2044,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="J23" s="2">
-        <v>1988</v>
+        <v>1732</v>
       </c>
       <c r="K23" s="2">
-        <v>1299.999999999999</v>
+        <v>3000</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="M23" s="2">
         <v>0</v>
@@ -2029,19 +2062,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="P23" s="2">
-        <v>257.6448</v>
+        <v>51.96</v>
       </c>
       <c r="Q23" s="2">
-        <v>168.4799999999999</v>
+        <v>90</v>
       </c>
       <c r="R23" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="S23" s="2" t="s">
-        <v>88</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:19">
@@ -2052,114 +2085,350 @@
         <v>29</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" s="2">
+        <v>1033</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3000</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P24" s="2">
+        <v>30.99</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>90</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J25" s="2">
+        <v>896</v>
+      </c>
+      <c r="K25" s="2">
+        <v>999.9999999999999</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P25" s="2">
+        <v>26.88</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>30</v>
+      </c>
+      <c r="R25" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G24" s="2">
-        <v>0</v>
-      </c>
-      <c r="H24" s="2">
-        <v>0</v>
-      </c>
-      <c r="I24" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1269</v>
+      </c>
+      <c r="K26" s="2">
+        <v>4999.99999999999</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="2">
+        <v>139.59</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>549.9999999999989</v>
+      </c>
+      <c r="R26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J27" s="2">
+        <v>12</v>
+      </c>
+      <c r="K27" s="2">
+        <v>1199.999999999999</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>131.9999999999999</v>
+      </c>
+      <c r="R27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="J28" s="2">
+        <v>131</v>
+      </c>
+      <c r="K28" s="2">
+        <v>850</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="2">
+        <v>14.41</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>93.5</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3">
+        <v>4</v>
+      </c>
+      <c r="C29" s="3">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="J24" s="2">
-        <v>1924</v>
-      </c>
-      <c r="K24" s="2">
-        <v>3499.999999999979</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2">
-        <v>0</v>
-      </c>
-      <c r="O24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P24" s="2">
-        <v>249.3504</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>453.5999999999972</v>
-      </c>
-      <c r="R24" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="S24" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3">
+      <c r="E29" s="3">
         <v>3</v>
       </c>
-      <c r="C25" s="3">
-        <v>8</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="3">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
-      <c r="G25" s="3">
-        <v>0</v>
-      </c>
-      <c r="H25" s="3">
-        <v>0</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="J25" s="3">
-        <v>25099</v>
-      </c>
-      <c r="K25" s="3">
-        <v>43773.99999999998</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="M25" s="3">
-        <v>0</v>
-      </c>
-      <c r="N25" s="3">
-        <v>0</v>
-      </c>
-      <c r="O25" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="P25" s="3">
-        <v>2151.0254</v>
-      </c>
-      <c r="Q25" s="3">
-        <v>3955.299999999997</v>
-      </c>
-      <c r="R25" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="S25" s="3" t="s">
-        <v>89</v>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="3">
+        <v>12630</v>
+      </c>
+      <c r="K29" s="3">
+        <v>26049.61290322578</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="P29" s="3">
+        <v>807.8600000000001</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>1840.488387096772</v>
+      </c>
+      <c r="R29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S29" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2177,7 +2446,7 @@
   <sheetData>
     <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
@@ -2219,182 +2488,182 @@
         <v>18</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2">
-        <v>102073</v>
+        <v>10062</v>
       </c>
       <c r="F2" s="2">
-        <v>108536</v>
+        <v>65000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2">
-        <v>6328.526</v>
+        <v>943.2260000000001</v>
       </c>
       <c r="L2" s="2">
-        <v>6729.232</v>
+        <v>6045.000000000001</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2">
-        <v>80791</v>
+        <v>99348</v>
       </c>
       <c r="F3" s="2">
-        <v>103641.2</v>
+        <v>67935</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2">
-        <v>5016.782</v>
+        <v>7053.708</v>
       </c>
       <c r="L3" s="2">
-        <v>6493.2544</v>
+        <v>4823.384999999999</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2">
-        <v>75731</v>
+        <v>12630</v>
       </c>
       <c r="F4" s="2">
-        <v>113802.0386266094</v>
+        <v>26049.61290322578</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="K4" s="2">
-        <v>4300.897</v>
+        <v>807.8600000000001</v>
       </c>
       <c r="L4" s="2">
-        <v>6573.476587982832</v>
+        <v>1840.488387096772</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2">
-        <v>25099</v>
+        <v>50154</v>
       </c>
       <c r="F5" s="2">
-        <v>43773.99999999998</v>
+        <v>72109.99999999991</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2">
-        <v>2151.0254</v>
+        <v>5182.115999999999</v>
       </c>
       <c r="L5" s="2">
-        <v>3955.299999999997</v>
+        <v>7201.669999999991</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4">
-        <v>262507</v>
+        <v>151510</v>
       </c>
       <c r="F6" s="4">
-        <v>330779.2386266094</v>
+        <v>142094.9999999999</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4">
-        <v>16153.2002</v>
+        <v>12432.459</v>
       </c>
       <c r="L6" s="4">
-        <v>20418.04298798283</v>
+        <v>12250.55499999999</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
